--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B9C64867-1C6B-428C-B4F4-4D0D16DD3C58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A113DB2E-7CBF-4891-8CDF-102F16EDDEA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,6 +610,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A113DB2E-7CBF-4891-8CDF-102F16EDDEA3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECDDFA55-5A6F-4EA8-9D4F-D6490FDC75CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>继续学习数据库的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目中的细节，忽略不必要的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +525,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,6 +626,15 @@
       <c r="A6" s="1">
         <v>43235</v>
       </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECDDFA55-5A6F-4EA8-9D4F-D6490FDC75CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{005B086F-CAB7-4634-843A-3283FFE273F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,66 @@
   </si>
   <si>
     <t>完成计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习json文件的解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会简单的解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学大文件分割处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-21:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着分割json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成分割，但是格式处理有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理分割后的json文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-22:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写json格式处理代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析分割后的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析json,并且插入数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再解析一个文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -636,6 +696,74 @@
         <v>29</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{005B086F-CAB7-4634-843A-3283FFE273F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA563C91-56E7-4A19-B79E-AFD15E6E5B0B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,38 @@
   </si>
   <si>
     <t>再解析一个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现数据库批量处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习批处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-23:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Relationship的数据处理部分代码，数据格式问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式处理正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批处理加强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,12 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -764,6 +797,40 @@
         <v>44</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA563C91-56E7-4A19-B79E-AFD15E6E5B0B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0D1F8CA-1E3A-4D7A-9AF0-DFAA526A45EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,22 @@
   </si>
   <si>
     <t>批处理加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Relationship和其他类的关系，改变了解析方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习MVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -831,6 +847,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0D1F8CA-1E3A-4D7A-9AF0-DFAA526A45EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58EC9323-2C27-4EF1-9B89-3FC6E7467C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,38 @@
   </si>
   <si>
     <t>学习MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改relationship及其相关类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成relationship相关类的编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写解析json的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -864,6 +896,40 @@
         <v>56</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58EC9323-2C27-4EF1-9B89-3FC6E7467C2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCF65544-0FFB-4D3A-8790-E423FFE51A1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,22 @@
   </si>
   <si>
     <t>插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目重立项，修改relationship的级联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入json数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -712,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43220</v>
       </c>
@@ -729,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43221</v>
       </c>
@@ -746,7 +762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43227</v>
       </c>
@@ -763,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -777,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43239</v>
       </c>
@@ -794,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43240</v>
       </c>
@@ -811,7 +827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43241</v>
       </c>
@@ -828,7 +844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43242</v>
       </c>
@@ -845,7 +861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43243</v>
       </c>
@@ -862,7 +878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43244</v>
       </c>
@@ -879,7 +895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43246</v>
       </c>
@@ -896,7 +912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43268</v>
       </c>
@@ -913,7 +929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43269</v>
       </c>
@@ -928,6 +944,23 @@
       </c>
       <c r="E15" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCF65544-0FFB-4D3A-8790-E423FFE51A1C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3477ECBC-CC78-41CF-A3C5-EB4484CE8DBA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,22 @@
   </si>
   <si>
     <t>插入json数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加relationshipManager的测试方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析scene的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -963,6 +979,23 @@
         <v>68</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3477ECBC-CC78-41CF-A3C5-EB4484CE8DBA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A32746F8-37C6-4F85-83BE-D81180EC80C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,22 @@
   </si>
   <si>
     <t>解析scene的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加scene类和scene的manager及其测试方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完成，可以插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写relationship的ExtJS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -979,7 +995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43271</v>
       </c>
@@ -996,6 +1012,24 @@
         <v>72</v>
       </c>
     </row>
+    <row r="18" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A32746F8-37C6-4F85-83BE-D81180EC80C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89A6ABAE-901E-44CE-9451-F7202D734771}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00-15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加scene类和scene的manager及其测试方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,6 +325,130 @@
   </si>
   <si>
     <t>编写relationship的ExtJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00:-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习bootstrap的官方教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会使用部分组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写首页的controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着编写主页的样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写概要设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续修改首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改首页样式，学习bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改relationship的字段设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改relationship的字段个myObject的字段，添加js界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加登入界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整原来的主页位管理原页面，并实现登入的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现登入，并对密码加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问答的controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问答和myobject的关联，和添加问答的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成通过链接请求获取question and answer的特殊数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-21:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1017,19 +1137,163 @@
         <v>43272</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89A6ABAE-901E-44CE-9451-F7202D734771}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E450DCD1-6A56-450C-A221-8AEBD52D7518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>14:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成管理员页面的登入状态判断，并修改样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分修改，界面仍需改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善管理员的界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +846,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1299,19 @@
     </row>
     <row r="27" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43282</v>
+        <v>43283</v>
       </c>
       <c r="B27" t="s">
         <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E450DCD1-6A56-450C-A221-8AEBD52D7518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F49C51C3-1F34-4F9E-865C-72054856EB2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成管理员页面的登入状态判断，并修改样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,6 +457,42 @@
   </si>
   <si>
     <t>改善管理员的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改讨论确定管理员的界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分界面设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为管理员添加登入次数的字段，设计表格的动态加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个表格的动态加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做完其他的表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,10 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1302,19 +1334,52 @@
         <v>43283</v>
       </c>
       <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F49C51C3-1F34-4F9E-865C-72054856EB2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABFD4968-5AF5-42C3-B8F5-2E53F372FD36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,6 +493,22 @@
   </si>
   <si>
     <t>做完其他的表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加管理员页的其他表格信息，添加对应的js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完成，后续优化美观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写question and answer的特殊数据请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1347,7 @@
     </row>
     <row r="27" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43283</v>
+        <v>43282</v>
       </c>
       <c r="B27" t="s">
         <v>109</v>
@@ -1348,7 +1364,7 @@
     </row>
     <row r="28" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43284</v>
+        <v>43283</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -1365,7 +1381,7 @@
     </row>
     <row r="29" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43285</v>
+        <v>43284</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
@@ -1380,8 +1396,28 @@
         <v>117</v>
       </c>
     </row>
+    <row r="30" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABFD4968-5AF5-42C3-B8F5-2E53F372FD36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{478534A9-DC6A-4750-BE35-B2A47055CA4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,38 @@
   </si>
   <si>
     <t>写question and answer的特殊数据请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写管理员界面的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现主页的图片信息动态展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写question and answer的特殊请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现完成，并实现主页的信息动态展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化外观</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +926,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1413,8 +1445,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040129_duqingqing.xlsx
+++ b/doc/log/log_201608040129_duqingqing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{478534A9-DC6A-4750-BE35-B2A47055CA4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{921CC92D-E605-492E-9E04-73CEE95734BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,22 @@
   </si>
   <si>
     <t>优化外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页添加模块，代码添加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续未完成模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1479,6 +1495,23 @@
         <v>129</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
